--- a/pokemonitems.xlsx
+++ b/pokemonitems.xlsx
@@ -443,70 +443,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>blue-flute</t>
+          <t>poke-ball</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>yellow-flute</t>
+          <t>poke-doll</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>red-flute</t>
+          <t>poke-radar</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>black-flute</t>
+          <t>slowpoke-tail</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>white-flute</t>
+          <t>pokeblock-case</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>azure-flute</t>
+          <t>poke-flute</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>poke-flute</t>
+          <t>poke-toy</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>eon-flute</t>
+          <t>pokeblock-kit</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>sun-flute</t>
+          <t>left-poke-ball</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>moon-flute</t>
+          <t>pokemon-box</t>
         </is>
       </c>
     </row>
